--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pheli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E5D5BD-6AC7-4F74-883F-5E2DBEDF14C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -187,9 +187,6 @@
     <t>https://cursos.alura.com.br/certificate/f481809b-bed1-40ce-9c79-a1abbd073257</t>
   </si>
   <si>
-    <t>https://cursos.alura.com.br/certificate/Phelipe-utsempreboni0/mysql-manipule-dados-com-sql</t>
-  </si>
-  <si>
     <t>https://cursos.alura.com.br/certificate/9b940d17-f4a7-49b4-931c-88cafc468964</t>
   </si>
   <si>
@@ -286,7 +283,7 @@
     <t>Power BI Completo - Do Básico ao Avançado</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>https://cursos.alura.com.br/certificate/fbb3328a-9e43-4cd3-a5f1-8761d2a33576</t>
   </si>
 </sst>
 </file>
@@ -685,26 +682,26 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -721,801 +718,801 @@
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43640</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43945</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43953</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44070</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E7" s="3">
         <v>44071</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44081</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E9" s="3">
         <v>44084</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44085</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44090</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44106</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
-        <v>44686</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>44651</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3">
-        <v>44215</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44463</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44218</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>44250</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44480</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>44482</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
       <c r="E14" s="3">
-        <v>44251</v>
+        <v>44107</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
       </c>
       <c r="E15" s="3">
+        <v>44135</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44215</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44218</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
         <v>44226</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>44702</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44445</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44107</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I18" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>44081</v>
+        <v>44241</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44250</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44251</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44253</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3">
-        <v>44400</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
         <v>12</v>
       </c>
-      <c r="E21" s="3">
-        <v>44241</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3">
-        <v>44106</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3">
-        <v>44085</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44135</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3">
-        <v>44250</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
-        <v>44250</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
       <c r="E27" s="3">
-        <v>44250</v>
+        <v>44445</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I27" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>43945</v>
+        <v>44452</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I28" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2">
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>43953</v>
+        <v>44463</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I29" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" s="3">
-        <v>44253</v>
+        <v>44480</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I30" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>44482</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D32" s="2">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44485</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3">
-        <v>44485</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="2">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3">
-        <v>44090</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I32" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -1524,24 +1521,24 @@
         <v>44485</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -1550,132 +1547,135 @@
         <v>44497</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I34" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>44452</v>
+        <v>44651</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I35" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" s="3">
-        <v>44070</v>
+        <v>44686</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I36" s="3">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
-        <v>43640</v>
+        <v>44702</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I37" s="3">
-        <v>44706</v>
+        <v>44712</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I37">
+    <sortCondition ref="E2:E37"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{3A7E67D5-9287-44E4-B0FC-9C32CB22DC32}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{BF2E4F31-0A2A-41E7-9918-A866E49886DD}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{4A31E66C-749B-4E60-B757-183AC3FCAE37}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{9F1D0157-7B04-4474-96E7-3CCAF6F30CC0}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{83CEAF08-F6D9-407E-A7C8-993F12DDE5FF}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{57D75DD0-06A7-440B-BB52-1DE13F58C8CC}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{BCE761C4-E362-4C0F-BA87-0314BEB62E9E}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{BB411F4B-C081-4A59-ABB4-CA1920DF3561}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{67C2EB9A-F269-4E6A-B3AA-9B6C79324372}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{0F65A124-6F27-4DD8-8C06-0522AA4FFD9B}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{1C47943E-9F38-4592-8DD2-1CDF386403A1}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{9CA8368D-42C2-4544-89B9-5432A82A3479}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{73820850-DD29-4FEF-82ED-4FC8D14E9B0F}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{4645C07A-3278-4B76-A85A-3ED27AE2E1CE}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{345C9D77-CAC4-4C8F-A7D9-781CF43963B8}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{89F4CD28-3199-4166-AB93-03B8F798E49B}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{7EAEC28C-3AEF-40F3-8535-C3130745717A}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{636FED42-EEA0-4A5F-A545-33CE6F24E190}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{CE8C326F-A9F7-42AF-919F-36117C8C82A1}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{A331BC24-6589-40AA-9B68-5DDD3D294BB2}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{6E900EDD-A8C0-4FF2-80AA-DAB9A4E15CAF}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{9EBAA6D8-AA4D-4AA9-9CEA-FACCC5C00CB7}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{9ABD9A99-F861-4777-8704-4DF7C574EB52}"/>
-    <hyperlink ref="F26" r:id="rId24" xr:uid="{4AAF04FB-F860-42F1-994A-7F57E6BD8672}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{864366BE-51BF-43CC-BCE8-B07B4FEEF88F}"/>
-    <hyperlink ref="F28" r:id="rId26" xr:uid="{E491B58D-FD6E-4CAC-AB8F-F5127E1E52E8}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{FC694D8A-2F51-4CDB-8283-1FA0FA5D44EF}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{C23EF0CA-8235-4807-8981-4107DB845196}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{B6704445-B976-42EB-AA7C-687D1CECE8A7}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{3A7E67D5-9287-44E4-B0FC-9C32CB22DC32}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{BF2E4F31-0A2A-41E7-9918-A866E49886DD}"/>
+    <hyperlink ref="F36" r:id="rId3" xr:uid="{4A31E66C-749B-4E60-B757-183AC3FCAE37}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{9F1D0157-7B04-4474-96E7-3CCAF6F30CC0}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{83CEAF08-F6D9-407E-A7C8-993F12DDE5FF}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{57D75DD0-06A7-440B-BB52-1DE13F58C8CC}"/>
+    <hyperlink ref="F29" r:id="rId7" xr:uid="{BCE761C4-E362-4C0F-BA87-0314BEB62E9E}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{BB411F4B-C081-4A59-ABB4-CA1920DF3561}"/>
+    <hyperlink ref="F20" r:id="rId9" xr:uid="{67C2EB9A-F269-4E6A-B3AA-9B6C79324372}"/>
+    <hyperlink ref="F30" r:id="rId10" xr:uid="{0F65A124-6F27-4DD8-8C06-0522AA4FFD9B}"/>
+    <hyperlink ref="F31" r:id="rId11" xr:uid="{1C47943E-9F38-4592-8DD2-1CDF386403A1}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{9CA8368D-42C2-4544-89B9-5432A82A3479}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{73820850-DD29-4FEF-82ED-4FC8D14E9B0F}"/>
+    <hyperlink ref="F37" r:id="rId14" xr:uid="{4645C07A-3278-4B76-A85A-3ED27AE2E1CE}"/>
+    <hyperlink ref="F27" r:id="rId15" xr:uid="{345C9D77-CAC4-4C8F-A7D9-781CF43963B8}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{89F4CD28-3199-4166-AB93-03B8F798E49B}"/>
+    <hyperlink ref="F8" r:id="rId17" xr:uid="{7EAEC28C-3AEF-40F3-8535-C3130745717A}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{636FED42-EEA0-4A5F-A545-33CE6F24E190}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{CE8C326F-A9F7-42AF-919F-36117C8C82A1}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{A331BC24-6589-40AA-9B68-5DDD3D294BB2}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{6E900EDD-A8C0-4FF2-80AA-DAB9A4E15CAF}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{9EBAA6D8-AA4D-4AA9-9CEA-FACCC5C00CB7}"/>
+    <hyperlink ref="F21" r:id="rId23" xr:uid="{9ABD9A99-F861-4777-8704-4DF7C574EB52}"/>
+    <hyperlink ref="F22" r:id="rId24" xr:uid="{4AAF04FB-F860-42F1-994A-7F57E6BD8672}"/>
+    <hyperlink ref="F23" r:id="rId25" xr:uid="{864366BE-51BF-43CC-BCE8-B07B4FEEF88F}"/>
+    <hyperlink ref="F4" r:id="rId26" xr:uid="{E491B58D-FD6E-4CAC-AB8F-F5127E1E52E8}"/>
+    <hyperlink ref="F5" r:id="rId27" xr:uid="{FC694D8A-2F51-4CDB-8283-1FA0FA5D44EF}"/>
+    <hyperlink ref="F32" r:id="rId28" xr:uid="{C23EF0CA-8235-4807-8981-4107DB845196}"/>
+    <hyperlink ref="F11" r:id="rId29" xr:uid="{B6704445-B976-42EB-AA7C-687D1CECE8A7}"/>
     <hyperlink ref="F33" r:id="rId30" xr:uid="{E9893821-2FF4-46CC-874C-B00C0A4059EF}"/>
     <hyperlink ref="F34" r:id="rId31" xr:uid="{A9BE7038-A2BE-466B-9FFA-CEADDFFACD80}"/>
-    <hyperlink ref="F35" r:id="rId32" xr:uid="{2E64C43D-34D4-4B5A-B522-A16F36E2CD99}"/>
-    <hyperlink ref="F36" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
-    <hyperlink ref="F37" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
+    <hyperlink ref="F28" r:id="rId32" xr:uid="{2E64C43D-34D4-4B5A-B522-A16F36E2CD99}"/>
+    <hyperlink ref="F6" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
+    <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E5D5BD-6AC7-4F74-883F-5E2DBEDF14C3}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CC6CA1-15C4-4DC8-B7BF-276D6D9C5064}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/fbb3328a-9e43-4cd3-a5f1-8761d2a33576</t>
+  </si>
+  <si>
+    <t>Big Data Fundamentos 3.0</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/6dg6puXNVJe2q9DC8</t>
   </si>
 </sst>
 </file>
@@ -679,29 +685,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,7 +733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -753,7 +759,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -779,7 +785,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -805,7 +811,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -831,7 +837,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -857,7 +863,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -883,7 +889,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -909,7 +915,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -935,7 +941,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -961,7 +967,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -987,7 +993,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1383,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1635,6 +1641,32 @@
       </c>
       <c r="I37" s="3">
         <v>44712</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44744</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="3">
+        <v>44744</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1708,9 @@
     <hyperlink ref="F28" r:id="rId32" xr:uid="{2E64C43D-34D4-4B5A-B522-A16F36E2CD99}"/>
     <hyperlink ref="F6" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
     <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
+    <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41CC6CA1-15C4-4DC8-B7BF-276D6D9C5064}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D058120-60AB-4D69-9DFD-674FE189043C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>https://mycourse.app/6dg6puXNVJe2q9DC8</t>
+  </si>
+  <si>
+    <t>Introdução à Ciência de Dados 3.0</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/WY1hEDsKmMfNfEVP9</t>
   </si>
 </sst>
 </file>
@@ -685,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1667,6 +1673,32 @@
       </c>
       <c r="I38" s="3">
         <v>44744</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44749</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44749</v>
       </c>
     </row>
   </sheetData>
@@ -1709,8 +1741,9 @@
     <hyperlink ref="F6" r:id="rId33" xr:uid="{85A1F8FA-71AD-41F6-A256-F0040690D899}"/>
     <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
     <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D058120-60AB-4D69-9DFD-674FE189043C}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8EB7E32-5173-4F3F-8363-25EAFFF1B642}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>https://mycourse.app/WY1hEDsKmMfNfEVP9</t>
+  </si>
+  <si>
+    <t>Agilidade: promovendo a transformação ágil</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/2c8b83bb-771a-4e2c-96af-f4170d680578</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1699,6 +1705,32 @@
       </c>
       <c r="I39" s="3">
         <v>44749</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44753</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3">
+        <v>44753</v>
       </c>
     </row>
   </sheetData>
@@ -1742,8 +1774,9 @@
     <hyperlink ref="F3" r:id="rId34" xr:uid="{23EF72AC-7CCD-4AF2-A26F-2D9F9212F721}"/>
     <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
     <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
+    <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8EB7E32-5173-4F3F-8363-25EAFFF1B642}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791C00F6-2BC3-49F0-ABD5-7C7B3292B808}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/2c8b83bb-771a-4e2c-96af-f4170d680578</t>
+  </si>
+  <si>
+    <t>Cerificação PMI-ACP - O Kanban</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/932b4b2c-6402-483a-838d-b2e39b85b3b0</t>
   </si>
 </sst>
 </file>
@@ -697,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1730,6 +1736,32 @@
         <v>28</v>
       </c>
       <c r="I40" s="3">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44756</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3">
         <v>44753</v>
       </c>
     </row>
@@ -1775,8 +1807,9 @@
     <hyperlink ref="F38" r:id="rId35" xr:uid="{F9A6DD3F-248C-4A6C-8BB2-F553239DF6EF}"/>
     <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
     <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/Repositories/Licenses-and-certificates/Certificates/New control/Table control/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{791C00F6-2BC3-49F0-ABD5-7C7B3292B808}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D412EDD3-DED6-484D-B2FB-190825D31C87}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/932b4b2c-6402-483a-838d-b2e39b85b3b0</t>
+  </si>
+  <si>
+    <t>Fundamentos de Engenharia de Dados</t>
+  </si>
+  <si>
+    <t>https://mycourse.app/eYh9YskZdbojwZBp8</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1763,6 +1769,32 @@
       </c>
       <c r="I41" s="3">
         <v>44753</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="2">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45078</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45078</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1840,9 @@
     <hyperlink ref="F39" r:id="rId36" xr:uid="{24F14443-B5D3-497F-BB68-8932122C254B}"/>
     <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
     <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
+    <hyperlink ref="F42" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D412EDD3-DED6-484D-B2FB-190825D31C87}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F76426-4E5D-4FD8-87F6-6A70802FBBA5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>https://mycourse.app/eYh9YskZdbojwZBp8</t>
+  </si>
+  <si>
+    <t>Aws Certified Cloud Practicioner: Domain 1 e 2</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/8229a485-f3bf-4445-9f58-99d30e792e12?lang=pt_BR</t>
   </si>
 </sst>
 </file>
@@ -709,29 +715,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -757,7 +763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -783,7 +789,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -809,7 +815,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -835,7 +841,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -861,7 +867,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -887,7 +893,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -913,7 +919,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -939,7 +945,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -965,7 +971,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -991,7 +997,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1751,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
@@ -1795,6 +1801,32 @@
       </c>
       <c r="I42" s="3">
         <v>45078</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45151</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45151</v>
       </c>
     </row>
   </sheetData>
@@ -1841,8 +1873,9 @@
     <hyperlink ref="F40" r:id="rId37" xr:uid="{3985EAEF-2E26-43A4-9767-4810C4F509AE}"/>
     <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
     <hyperlink ref="F42" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
+    <hyperlink ref="F43" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Certificates/New control/Table control/Control.xlsx
+++ b/Certificates/New control/Table control/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e0d6736cb383cdc/Archives/2 - Github/licenses-and-certificates/Certificates/New control/Table control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F76426-4E5D-4FD8-87F6-6A70802FBBA5}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{AAD35425-F87E-4C11-9C09-CB5B2BB15EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17C82F78-1E1E-42EF-A16A-59B5A2C8D557}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{63E668A9-ABAC-4246-A57F-81A0507FB8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
   <si>
     <t>Youtube parte 1: criação e otimização de um canal (de 03/02/2021 a 23/02/2021) 8hrs</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>https://cursos.alura.com.br/certificate/8229a485-f3bf-4445-9f58-99d30e792e12?lang=pt_BR</t>
+  </si>
+  <si>
+    <t>Aws Certified Cloud Practicioner: Domain 3 e 4</t>
+  </si>
+  <si>
+    <t>https://cursos.alura.com.br/certificate/b9572da4-2224-4da1-b262-0931eb2c7d84</t>
   </si>
 </sst>
 </file>
@@ -416,6 +422,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,29 +725,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F2FFB-C69B-48E5-8D17-73A3C2383ABD}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1" hidden="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -763,7 +773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -789,7 +799,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
@@ -815,7 +825,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
@@ -841,7 +851,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -867,7 +877,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -893,7 +903,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -919,7 +929,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -945,7 +955,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -971,7 +981,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -997,7 +1007,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1085,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1657,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
@@ -1699,7 +1709,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -1725,7 +1735,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1827,6 +1837,32 @@
       </c>
       <c r="I43" s="3">
         <v>45151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45154</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45154</v>
       </c>
     </row>
   </sheetData>
@@ -1874,8 +1910,9 @@
     <hyperlink ref="F41" r:id="rId38" xr:uid="{5EC806D4-4D6E-450F-B830-77F86AAB44F6}"/>
     <hyperlink ref="F42" r:id="rId39" xr:uid="{F92BB73A-4870-4463-9880-C0101089B75F}"/>
     <hyperlink ref="F43" r:id="rId40" xr:uid="{2200F868-1793-4044-8C8C-7509D9E3BC95}"/>
+    <hyperlink ref="F44" r:id="rId41" xr:uid="{11373B3D-3505-4571-ACA3-186EAFF6C80D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>